--- a/output/Pack_Excel_Pro/Modulo_3_Visualizacion/07_Dashboard_Ventas_Combustible.xlsx
+++ b/output/Pack_Excel_Pro/Modulo_3_Visualizacion/07_Dashboard_Ventas_Combustible.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isca/Code/projects/excel-course-for-accountants/output/Pack_Excel_Pro/Modulo_3_Visualizacion/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5343A6-66EB-6848-A82F-C64EF39F3C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
     <sheet name="Grafico" sheetId="2" r:id="rId2"/>
     <sheet name="Instrucciones" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -111,12 +130,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
-    <numFmt numFmtId="165" formatCode="$#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,35 +229,34 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -248,19 +265,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="10"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -278,13 +313,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -301,6 +338,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Datos!$A$4:$A$15</c:f>
@@ -349,13 +387,13 @@
             <c:numRef>
               <c:f>Datos!$C$4:$C$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>\$#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2299721.55</c:v>
+                  <c:v>2299721.5499999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2542698.97</c:v>
+                  <c:v>2542698.9700000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2487794.4</c:v>
@@ -390,6 +428,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D1F-4C4F-8389-426347568C21}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -407,6 +450,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Datos!$A$4:$A$15</c:f>
@@ -455,7 +499,7 @@
             <c:numRef>
               <c:f>Datos!$E$4:$E$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>\$#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1733933.95</c:v>
@@ -476,7 +520,7 @@
                   <c:v>2482957.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2579514.45</c:v>
+                  <c:v>2579514.4500000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2281373.37</c:v>
@@ -496,6 +540,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D1F-4C4F-8389-426347568C21}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -513,6 +562,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Datos!$A$4:$A$15</c:f>
@@ -561,13 +611,13 @@
             <c:numRef>
               <c:f>Datos!$G$4:$G$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>\$#,##0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2211792.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2224479.24</c:v>
+                  <c:v>2224479.2400000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2366672</c:v>
@@ -591,18 +641,31 @@
                   <c:v>2703095.13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2439497.76</c:v>
+                  <c:v>2439497.7599999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2608723.35</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2402379.49</c:v>
+                  <c:v>2402379.4900000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D1F-4C4F-8389-426347568C21}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="100"/>
         <c:axId val="50010001"/>
@@ -613,6 +676,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -630,20 +694,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -662,9 +731,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="$#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="\$#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
@@ -673,9 +744,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -686,9 +759,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="10"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -706,13 +788,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -729,6 +813,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Datos!$A$4:$A$15</c:f>
@@ -777,7 +862,7 @@
             <c:numRef>
               <c:f>Datos!$B$4:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>99771</c:v>
@@ -818,6 +903,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67F2-344C-A922-23781B709C67}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -835,6 +925,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Datos!$A$4:$A$15</c:f>
@@ -883,7 +974,7 @@
             <c:numRef>
               <c:f>Datos!$D$4:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>68131</c:v>
@@ -924,6 +1015,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67F2-344C-A922-23781B709C67}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -941,6 +1037,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Datos!$A$4:$A$15</c:f>
@@ -989,7 +1086,7 @@
             <c:numRef>
               <c:f>Datos!$F$4:$F$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>83939</c:v>
@@ -1030,7 +1127,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-67F2-344C-A922-23781B709C67}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="100"/>
         <c:axId val="50020001"/>
@@ -1041,6 +1151,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1058,20 +1169,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50020002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1090,9 +1206,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020001"/>
         <c:crosses val="autoZero"/>
@@ -1101,9 +1219,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1130,7 +1250,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1160,7 +1286,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1179,9 +1311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1219,7 +1351,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1253,6 +1385,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1287,9 +1420,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1462,359 +1596,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>99771</v>
       </c>
-      <c r="C4" s="5">
-        <v>2299721.55</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="4">
+        <v>2299721.5499999998</v>
+      </c>
+      <c r="D4" s="3">
         <v>68131</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1733933.95</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>83939</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>2211792.65</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>109741</v>
       </c>
-      <c r="C5" s="8">
-        <v>2542698.97</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="7">
+        <v>2542698.9700000002</v>
+      </c>
+      <c r="D5" s="6">
         <v>74215</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1859827.9</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>85524</v>
       </c>
-      <c r="G5" s="8">
-        <v>2224479.24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="7">
+        <v>2224479.2400000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>106316</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2487794.4</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>80234</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>2093305.06</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>90400</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>2366672</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>120001</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2761223.01</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>84971</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>2243234.4</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>95450</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>2415839.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>127996</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>3029665.32</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>83169</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>2095027.11</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>105544</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>2766308.24</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>133580</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>3267366.8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>92132</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>2482957.4</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>106688</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>2784556.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>138827</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>3365166.48</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>98643</v>
       </c>
-      <c r="E10" s="5">
-        <v>2579514.45</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="4">
+        <v>2579514.4500000002</v>
+      </c>
+      <c r="F10" s="3">
         <v>114291</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>2867561.19</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>128408</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>3027860.64</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>89571</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>2281373.37</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>105611</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>2699417.16</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>125277</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>2972823.21</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>86413</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>2196618.46</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>100599</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>2703095.13</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>119340</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>2890414.8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>80560</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>2131617.6</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>94701</v>
       </c>
-      <c r="G13" s="8">
-        <v>2439497.76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
+      <c r="G13" s="7">
+        <v>2439497.7599999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>119580</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2903402.4</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>81209</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>2141481.33</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>98257</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>2608723.35</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>107408</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>2476828.48</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>76756</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>1960348.24</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>89341</v>
       </c>
-      <c r="G15" s="8">
-        <v>2402379.49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="9" t="s">
+      <c r="G15" s="7">
+        <v>2402379.4900000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="10">
-        <f>SUM(B4:B15)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="11">
-        <f>SUM(C4:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="10">
-        <f>SUM(D4:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <f>SUM(E4:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <f>SUM(F4:F15)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(G4:G15)</f>
-        <v>0</v>
+      <c r="B16" s="9">
+        <f t="shared" ref="B16:G16" si="0">SUM(B4:B15)</f>
+        <v>1436245</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" si="0"/>
+        <v>34024966.060000002</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>996004</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="0"/>
+        <v>25799239.27</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>1170345</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="0"/>
+        <v>30490322.510000005</v>
       </c>
     </row>
   </sheetData>
@@ -1826,12 +1962,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1839,90 +1975,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="90.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="12">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="12">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="12">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="12">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="12">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="12">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="12">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
     </row>
